--- a/results/mp/logistic/corona/confidence/42/masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="120">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,34 +43,28 @@
     <t>crude</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>problem</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>fuck</t>
@@ -79,49 +73,40 @@
     <t>recession</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>lower</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>isolation</t>
+    <t>stop</t>
   </si>
   <si>
     <t>fight</t>
@@ -130,9 +115,6 @@
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -142,241 +124,256 @@
     <t>buying</t>
   </si>
   <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
     <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>:</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>it</t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>all</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>!</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>i</t>
   </si>
   <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>at</t>
   </si>
   <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -734,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -803,13 +800,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -821,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -845,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -853,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8260869565217391</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -871,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -895,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -903,13 +900,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8253424657534246</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -921,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -945,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -953,13 +950,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8157894736842105</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -971,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K6">
-        <v>0.9083333333333333</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -995,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1003,13 +1000,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1021,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1045,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1053,13 +1050,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7837837837837838</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1071,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1095,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1103,7 +1100,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -1121,31 +1118,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>6</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9">
-        <v>0.8485639686684073</v>
-      </c>
-      <c r="L9">
-        <v>325</v>
-      </c>
-      <c r="M9">
-        <v>325</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1153,13 +1150,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1171,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K10">
-        <v>0.81875</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1195,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1203,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1221,31 +1218,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11">
+        <v>0.825065274151436</v>
+      </c>
+      <c r="L11">
+        <v>316</v>
+      </c>
+      <c r="M11">
+        <v>316</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>67</v>
-      </c>
-      <c r="K11">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L11">
-        <v>27</v>
-      </c>
-      <c r="M11">
-        <v>27</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1253,13 +1250,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7333333333333333</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1271,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K12">
-        <v>0.8170731707317073</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1295,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1303,13 +1300,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1321,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K13">
-        <v>0.8169014084507042</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L13">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="M13">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1345,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1353,37 +1350,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6153846153846154</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>24</v>
       </c>
-      <c r="D14">
-        <v>24</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>15</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K14">
-        <v>0.8018867924528302</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="L14">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1395,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1403,13 +1400,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6129032258064516</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1421,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K15">
-        <v>0.7948717948717948</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1445,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1453,13 +1450,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5872093023255814</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="C16">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D16">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1471,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K16">
-        <v>0.7931034482758621</v>
+        <v>0.8046875</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1495,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1503,37 +1500,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5862068965517241</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K17">
-        <v>0.7890625</v>
+        <v>0.8</v>
       </c>
       <c r="L17">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="M17">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1545,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1553,13 +1550,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5767195767195767</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C18">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1571,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K18">
-        <v>0.7872340425531915</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1595,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1603,13 +1600,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.575</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1621,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1645,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1653,13 +1650,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1671,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1695,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1703,13 +1700,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5100671140939598</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C21">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="D21">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1721,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K21">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1745,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1753,13 +1750,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5098039215686274</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1771,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K22">
-        <v>0.7222222222222222</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1795,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1803,13 +1800,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4871794871794872</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1821,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K23">
-        <v>0.7209302325581395</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1845,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1853,13 +1850,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4777777777777778</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C24">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1871,19 +1868,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K24">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1895,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1903,13 +1900,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4533333333333333</v>
+        <v>0.3373015873015873</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1921,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K25">
-        <v>0.7</v>
+        <v>0.6875</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1945,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1953,13 +1950,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4363636363636363</v>
+        <v>0.2875</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1971,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K26">
-        <v>0.6735294117647059</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1995,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>111</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2003,13 +2000,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4363636363636363</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2021,19 +2018,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K27">
-        <v>0.66</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2045,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2053,37 +2050,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4107142857142857</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K28">
-        <v>0.6571428571428571</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2095,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2103,13 +2100,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3777777777777778</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2121,31 +2118,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K29">
-        <v>0.6326530612244898</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L29">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="M29">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2153,37 +2150,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3725490196078431</v>
+        <v>0.08561643835616438</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K30">
-        <v>0.6292134831460674</v>
+        <v>0.6237288135593221</v>
       </c>
       <c r="L30">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="M30">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2195,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2203,37 +2200,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.35</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>52</v>
+        <v>676</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K31">
         <v>0.6</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2245,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2253,37 +2250,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3246753246753247</v>
+        <v>0.03691709844559585</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>52</v>
+        <v>2974</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K32">
-        <v>0.5882352941176471</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2295,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2303,37 +2300,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2817460317460317</v>
+        <v>0.03373702422145329</v>
       </c>
       <c r="C33">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D33">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>181</v>
+        <v>1117</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K33">
-        <v>0.5857740585774058</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L33">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2345,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>99</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2353,37 +2350,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2359249329758713</v>
+        <v>0.03128621089223638</v>
       </c>
       <c r="C34">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>285</v>
+        <v>836</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K34">
-        <v>0.574468085106383</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L34">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M34">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2403,37 +2400,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.15</v>
+        <v>0.02460955986748698</v>
       </c>
       <c r="C35">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D35">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>255</v>
+        <v>2061</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K35">
-        <v>0.5428571428571428</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2445,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2453,37 +2450,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.09215017064846416</v>
+        <v>0.02416570771001151</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>266</v>
+        <v>848</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K36">
-        <v>0.4888888888888889</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2495,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2503,46 +2500,46 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.04152249134948097</v>
+        <v>0.02086882453151618</v>
       </c>
       <c r="C37">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E37">
-        <v>0.09</v>
+        <v>0.39</v>
       </c>
       <c r="F37">
-        <v>0.91</v>
+        <v>0.61</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1108</v>
+        <v>2299</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K37">
-        <v>0.4634146341463415</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
         <v>22</v>
@@ -2553,37 +2550,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03526366871562601</v>
+        <v>0.01856763925729443</v>
       </c>
       <c r="C38">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E38">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="F38">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>2982</v>
+        <v>1110</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K38">
-        <v>0.3972602739726027</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2595,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2603,37 +2600,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03392568659127625</v>
+        <v>0.01751592356687898</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D39">
+        <v>55</v>
+      </c>
+      <c r="E39">
+        <v>0.6</v>
+      </c>
+      <c r="F39">
+        <v>0.4</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1234</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K39">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L39">
         <v>29</v>
       </c>
-      <c r="E39">
-        <v>0.28</v>
-      </c>
-      <c r="F39">
-        <v>0.72</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>598</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K39">
-        <v>0.3898305084745763</v>
-      </c>
-      <c r="L39">
-        <v>23</v>
-      </c>
       <c r="M39">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2645,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2653,37 +2650,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03139534883720931</v>
+        <v>0.01557878130546243</v>
       </c>
       <c r="C40">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D40">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="E40">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
       <c r="F40">
-        <v>0.79</v>
+        <v>0.46</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>833</v>
+        <v>4992</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K40">
-        <v>0.3770491803278688</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2695,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2703,37 +2700,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02644003777148253</v>
+        <v>0.01484780994803266</v>
       </c>
       <c r="C41">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E41">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="F41">
-        <v>0.6899999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>2062</v>
+        <v>1327</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K41">
-        <v>0.3717948717948718</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2745,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2753,37 +2750,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.02424500212675457</v>
+        <v>0.01359649122807018</v>
       </c>
       <c r="C42">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D42">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E42">
-        <v>0.33</v>
+        <v>0.48</v>
       </c>
       <c r="F42">
-        <v>0.6699999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>2294</v>
+        <v>2249</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K42">
-        <v>0.34375</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2795,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2803,37 +2800,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01800695723347657</v>
+        <v>0.01355713363460297</v>
       </c>
       <c r="C43">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="E43">
-        <v>0.55</v>
+        <v>0.68</v>
       </c>
       <c r="F43">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>4799</v>
+        <v>1528</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K43">
-        <v>0.3333333333333333</v>
+        <v>0.359375</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2845,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2853,49 +2850,49 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01740850642927794</v>
+        <v>0.0134886572654813</v>
       </c>
       <c r="C44">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D44">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="E44">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="F44">
-        <v>0.4399999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>4967</v>
+        <v>4827</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K44">
-        <v>0.2264150943396226</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N44">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2903,13 +2900,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.01733615221987315</v>
+        <v>0.01342845153168275</v>
       </c>
       <c r="C45">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D45">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E45">
         <v>0.66</v>
@@ -2921,31 +2918,31 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2324</v>
+        <v>2351</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K45">
-        <v>0.1774193548387097</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2953,49 +2950,49 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01503406154568945</v>
+        <v>0.01318267419962335</v>
       </c>
       <c r="C46">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="E46">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="F46">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>4193</v>
+        <v>2096</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K46">
-        <v>0.147887323943662</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3003,49 +3000,49 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.01491882404563405</v>
+        <v>0.0122620200064537</v>
       </c>
       <c r="C47">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D47">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="E47">
-        <v>0.47</v>
+        <v>0.73</v>
       </c>
       <c r="F47">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>2245</v>
+        <v>3061</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K47">
-        <v>0.1189189189189189</v>
+        <v>0.147887323943662</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M47">
         <v>22</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>163</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3053,49 +3050,49 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01410541945063103</v>
+        <v>0.01218369259606373</v>
       </c>
       <c r="C48">
+        <v>52</v>
+      </c>
+      <c r="D48">
+        <v>112</v>
+      </c>
+      <c r="E48">
+        <v>0.54</v>
+      </c>
+      <c r="F48">
+        <v>0.46</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>4216</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K48">
+        <v>0.1180124223602484</v>
+      </c>
+      <c r="L48">
         <v>19</v>
       </c>
-      <c r="D48">
-        <v>35</v>
-      </c>
-      <c r="E48">
-        <v>0.46</v>
-      </c>
-      <c r="F48">
-        <v>0.54</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1328</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K48">
-        <v>0.09120521172638436</v>
-      </c>
-      <c r="L48">
-        <v>28</v>
-      </c>
       <c r="M48">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N48">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="O48">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>279</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3103,395 +3100,323 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.01197373503283121</v>
+        <v>0.0111969111969112</v>
       </c>
       <c r="C49">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D49">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E49">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="F49">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49">
+        <v>0.1104651162790698</v>
+      </c>
+      <c r="L49">
+        <v>19</v>
+      </c>
+      <c r="M49">
+        <v>19</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="J50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="J51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K51">
+        <v>0.08441558441558442</v>
+      </c>
+      <c r="L51">
+        <v>26</v>
+      </c>
+      <c r="M51">
+        <v>26</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="J52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K49">
-        <v>0.08413461538461539</v>
-      </c>
-      <c r="L49">
-        <v>35</v>
-      </c>
-      <c r="M49">
-        <v>35</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.00968054211035818</v>
-      </c>
-      <c r="C50">
-        <v>30</v>
-      </c>
-      <c r="D50">
-        <v>132</v>
-      </c>
-      <c r="E50">
-        <v>0.77</v>
-      </c>
-      <c r="F50">
-        <v>0.23</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>3069</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K50">
-        <v>0.08022922636103152</v>
-      </c>
-      <c r="L50">
-        <v>28</v>
-      </c>
-      <c r="M50">
-        <v>28</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.009071274298056155</v>
-      </c>
-      <c r="C51">
-        <v>21</v>
-      </c>
-      <c r="D51">
-        <v>100</v>
-      </c>
-      <c r="E51">
-        <v>0.79</v>
-      </c>
-      <c r="F51">
-        <v>0.21</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>2294</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K51">
-        <v>0.07612456747404844</v>
-      </c>
-      <c r="L51">
-        <v>22</v>
-      </c>
-      <c r="M51">
-        <v>22</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.008941176470588235</v>
-      </c>
-      <c r="C52">
-        <v>19</v>
-      </c>
-      <c r="D52">
-        <v>52</v>
-      </c>
-      <c r="E52">
-        <v>0.63</v>
-      </c>
-      <c r="F52">
-        <v>0.37</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>2106</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="K52">
-        <v>0.07211538461538461</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N52">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="J53" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K53">
-        <v>0.06454316848281642</v>
+        <v>0.08009708737864078</v>
       </c>
       <c r="L53">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="M53">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="N53">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="O53">
-        <v>0.07999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>1116</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="J54" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K54">
-        <v>0.05311355311355311</v>
+        <v>0.07958477508650519</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>517</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="J55" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K55">
-        <v>0.0449438202247191</v>
+        <v>0.06972477064220184</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M55">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N55">
-        <v>0.71</v>
+        <v>0.95</v>
       </c>
       <c r="O55">
-        <v>0.29</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="J56" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K56">
-        <v>0.04480651731160896</v>
+        <v>0.06700167504187604</v>
       </c>
       <c r="L56">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="M56">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="N56">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="O56">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>938</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="J57" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K57">
-        <v>0.03969022265246854</v>
+        <v>0.05459770114942529</v>
       </c>
       <c r="L57">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N57">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="O57">
-        <v>0.15</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>992</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="K58">
-        <v>0.03329119258322798</v>
+        <v>0.04991680532445923</v>
       </c>
       <c r="L58">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="M58">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="N58">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="O58">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>2294</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="K59">
-        <v>0.03327787021630615</v>
+        <v>0.03544303797468355</v>
       </c>
       <c r="L59">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="M59">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="N59">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="O59">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>2324</v>
+        <v>762</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K60">
-        <v>0.03327787021630615</v>
+        <v>0.03322119428090833</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="M60">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="N60">
         <v>0.83</v>
@@ -3503,59 +3428,59 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>581</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K61">
-        <v>0.03296703296703297</v>
+        <v>0.03286384976525822</v>
       </c>
       <c r="L61">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M61">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N61">
-        <v>0.74</v>
+        <v>0.66</v>
       </c>
       <c r="O61">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>1232</v>
+        <v>618</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K62">
-        <v>0.03216650898770104</v>
+        <v>0.03224786595004742</v>
       </c>
       <c r="L62">
         <v>102</v>
       </c>
       <c r="M62">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N62">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="O62">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>3069</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3563,65 +3488,65 @@
         <v>54</v>
       </c>
       <c r="K63">
-        <v>0.03179409538228615</v>
+        <v>0.03139183055975794</v>
       </c>
       <c r="L63">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M63">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N63">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="O63">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>2558</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K64">
-        <v>0.03014416775884666</v>
+        <v>0.02956167176350663</v>
       </c>
       <c r="L64">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M64">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N64">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="O64">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>740</v>
+        <v>952</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="K65">
-        <v>0.0296411856474259</v>
+        <v>0.02860775588048315</v>
       </c>
       <c r="L65">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M65">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="N65">
         <v>0.68</v>
@@ -3633,267 +3558,371 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>622</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>0.02637614678899083</v>
+        <v>0.0260457774269929</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M66">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N66">
-        <v>0.79</v>
+        <v>0.6</v>
       </c>
       <c r="O66">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>849</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K67">
-        <v>0.02538071065989848</v>
+        <v>0.0256941566514712</v>
       </c>
       <c r="L67">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M67">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="N67">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="O67">
-        <v>0.3100000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1536</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K68">
-        <v>0.0234375</v>
+        <v>0.02458100558659218</v>
       </c>
       <c r="L68">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N68">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="O68">
-        <v>0.1899999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="K69">
-        <v>0.02220863895680522</v>
+        <v>0.02321083172147002</v>
       </c>
       <c r="L69">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="M69">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="N69">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="O69">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>4799</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="K70">
-        <v>0.02166633838881229</v>
+        <v>0.02306805074971165</v>
       </c>
       <c r="L70">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="M70">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="N70">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="O70">
-        <v>0.4399999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>4967</v>
+        <v>847</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="K71">
-        <v>0.01665103189493434</v>
+        <v>0.02134831460674157</v>
       </c>
       <c r="L71">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M71">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="N71">
-        <v>0.53</v>
+        <v>0.83</v>
       </c>
       <c r="O71">
-        <v>0.47</v>
+        <v>0.17</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>4193</v>
+        <v>871</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>0.01542776998597475</v>
+        <v>0.02089249492900608</v>
       </c>
       <c r="L72">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="M72">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="N72">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="O72">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>2106</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>0.01318681318681319</v>
+        <v>0.0184821077467558</v>
       </c>
       <c r="L73">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="M73">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="N73">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="O73">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>2245</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K74">
-        <v>0.01205857019810508</v>
+        <v>0.01596244131455399</v>
       </c>
       <c r="L74">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M74">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="N74">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="O74">
-        <v>0.6699999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>2294</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K75">
-        <v>0.01197891710589363</v>
+        <v>0.01434720229555237</v>
       </c>
       <c r="L75">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M75">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N75">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="O75">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>2062</v>
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K76">
+        <v>0.01403180542563143</v>
+      </c>
+      <c r="L76">
+        <v>60</v>
+      </c>
+      <c r="M76">
+        <v>112</v>
+      </c>
+      <c r="N76">
+        <v>0.54</v>
+      </c>
+      <c r="O76">
+        <v>0.46</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K77">
+        <v>0.01330472103004292</v>
+      </c>
+      <c r="L77">
+        <v>31</v>
+      </c>
+      <c r="M77">
+        <v>80</v>
+      </c>
+      <c r="N77">
+        <v>0.39</v>
+      </c>
+      <c r="O77">
+        <v>0.61</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K78">
+        <v>0.01273046532045654</v>
+      </c>
+      <c r="L78">
+        <v>29</v>
+      </c>
+      <c r="M78">
+        <v>60</v>
+      </c>
+      <c r="N78">
+        <v>0.48</v>
+      </c>
+      <c r="O78">
+        <v>0.52</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K79">
+        <v>0.006348145673237555</v>
+      </c>
+      <c r="L79">
+        <v>19</v>
+      </c>
+      <c r="M79">
+        <v>133</v>
+      </c>
+      <c r="N79">
+        <v>0.14</v>
+      </c>
+      <c r="O79">
+        <v>0.86</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>2974</v>
       </c>
     </row>
   </sheetData>
